--- a/Primary files/Twitter_bishops.xlsx
+++ b/Primary files/Twitter_bishops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acavender/Documents/Data analysis/bishopsAndTwitter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub projects\bishopsAndTwitter\Primary files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259B2744-E8A6-844A-912F-01B069C69E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D6EAB4-0810-4036-85B2-6E89E38F4043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{34090DEA-69FC-D846-84F2-4CAD68C07F9F}"/>
+    <workbookView xWindow="19118" yWindow="0" windowWidth="19365" windowHeight="21308" xr2:uid="{34090DEA-69FC-D846-84F2-4CAD68C07F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean" sheetId="2" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="473">
   <si>
     <t>State</t>
   </si>
@@ -1694,21 +1694,6 @@
   </si>
   <si>
     <t>protected account</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1816,124 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1842,6 +1944,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{57C73309-5116-429E-9C93-E1746AD53C31}" name="Table2" displayName="Table2" ref="A1:K107" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:K107" xr:uid="{57C73309-5116-429E-9C93-E1746AD53C31}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6BAFAAF4-50AE-43E7-BFEA-A04E76AA39BA}" name="State"/>
+    <tableColumn id="2" xr3:uid="{39F8BC8C-B761-47D5-8AAA-F7C7DEA9B11A}" name="Diocese" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FDD68453-E475-4F15-A10E-13B06C9CB006}" name="Archdiocese"/>
+    <tableColumn id="4" xr3:uid="{71D3F8E7-0CD1-47EC-8B37-5E4599E20751}" name="Bishop_last_name"/>
+    <tableColumn id="5" xr3:uid="{E5B4A74C-8F37-4210-83D5-16C0DC8A8ADF}" name="Bishop_first_name"/>
+    <tableColumn id="6" xr3:uid="{6FE14C9D-6B7F-42A6-89EA-AEFF39B4AD4B}" name="Religious_order"/>
+    <tableColumn id="7" xr3:uid="{562431B4-CCEB-423C-95C5-3C6D7C10B61A}" name="Bishop_status"/>
+    <tableColumn id="8" xr3:uid="{35218C3C-48D4-4D12-AB5D-713B08AB3AB1}" name="Twitter_bishop" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{F0A27F47-3A4E-4233-986C-63BC61474FEB}" name="Followers" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{C8B4BABC-C1D3-4358-8BF7-7855627E75E4}" name="Following" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{92E63BF6-5AD7-4F85-AFA1-2CAC28904015}" name="Tweets" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2143,24 +2265,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80807877-8080-254F-A2A4-CAEF3F01F238}">
   <dimension ref="A1:X117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.6875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="22.3125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="15"/>
+    <col min="9" max="11" width="10.8125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2331,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2253,7 +2376,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2298,7 +2421,7 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2343,7 +2466,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2388,7 +2511,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2556,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2478,7 +2601,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2523,7 +2646,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2568,7 +2691,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2613,7 +2736,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2658,7 +2781,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2703,7 +2826,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2748,7 +2871,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2793,7 +2916,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2838,7 +2961,7 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2883,7 +3006,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -2928,7 +3051,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2973,7 +3096,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -3021,7 +3144,7 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -3066,7 +3189,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -3111,7 +3234,7 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3156,7 +3279,7 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3201,7 +3324,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -3246,7 +3369,7 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -3291,7 +3414,7 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -3339,7 +3462,7 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -3385,7 +3508,7 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -3430,7 +3553,7 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -3475,7 +3598,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
     </row>
-    <row r="30" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3520,7 +3643,7 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -3565,7 +3688,7 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
     </row>
-    <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -3610,7 +3733,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
     </row>
-    <row r="33" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -3655,7 +3778,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3703,7 +3826,7 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -3748,7 +3871,7 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
     </row>
-    <row r="36" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -3793,7 +3916,7 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -3838,7 +3961,7 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
     </row>
-    <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -3886,7 +4009,7 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -3931,7 +4054,7 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
     </row>
-    <row r="40" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -3976,7 +4099,7 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -4021,7 +4144,7 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
     </row>
-    <row r="42" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -4066,7 +4189,7 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
     </row>
-    <row r="43" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -4111,7 +4234,7 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
     </row>
-    <row r="44" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -4156,7 +4279,7 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
     </row>
-    <row r="45" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -4201,7 +4324,7 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -4246,7 +4369,7 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
     </row>
-    <row r="47" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -4291,7 +4414,7 @@
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
     </row>
-    <row r="48" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -4336,7 +4459,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -4381,7 +4504,7 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -4426,7 +4549,7 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
     </row>
-    <row r="51" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>228</v>
       </c>
@@ -4471,7 +4594,7 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
     </row>
-    <row r="52" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -4516,7 +4639,7 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
     </row>
-    <row r="53" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -4561,7 +4684,7 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
     </row>
-    <row r="54" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>242</v>
       </c>
@@ -4606,7 +4729,7 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
     </row>
-    <row r="55" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -4651,7 +4774,7 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
     </row>
-    <row r="56" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>250</v>
       </c>
@@ -4696,7 +4819,7 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
     </row>
-    <row r="57" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -4741,7 +4864,7 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -4786,7 +4909,7 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
     </row>
-    <row r="59" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>255</v>
       </c>
@@ -4831,7 +4954,7 @@
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
     </row>
-    <row r="60" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>255</v>
       </c>
@@ -4876,7 +4999,7 @@
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
     </row>
-    <row r="61" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>255</v>
       </c>
@@ -4921,7 +5044,7 @@
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
     </row>
-    <row r="62" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -4966,7 +5089,7 @@
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
     </row>
-    <row r="63" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>276</v>
       </c>
@@ -5011,7 +5134,7 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -5056,7 +5179,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>281</v>
       </c>
@@ -5101,7 +5224,7 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
     </row>
-    <row r="66" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -5146,7 +5269,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -5191,7 +5314,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>298</v>
       </c>
@@ -5236,7 +5359,7 @@
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
     </row>
-    <row r="69" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -5281,7 +5404,7 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -5326,7 +5449,7 @@
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
     </row>
-    <row r="71" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>311</v>
       </c>
@@ -5371,7 +5494,7 @@
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
     </row>
-    <row r="72" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -5416,7 +5539,7 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
     </row>
-    <row r="73" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -5461,7 +5584,7 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>311</v>
       </c>
@@ -5506,7 +5629,7 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
     </row>
-    <row r="75" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -5551,7 +5674,7 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>311</v>
       </c>
@@ -5596,7 +5719,7 @@
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
     </row>
-    <row r="77" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -5641,7 +5764,7 @@
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
     </row>
-    <row r="78" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>311</v>
       </c>
@@ -5686,7 +5809,7 @@
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
     </row>
-    <row r="79" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>344</v>
       </c>
@@ -5731,7 +5854,7 @@
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
     </row>
-    <row r="80" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -5779,7 +5902,7 @@
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>344</v>
       </c>
@@ -5824,7 +5947,7 @@
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>361</v>
       </c>
@@ -5869,7 +5992,7 @@
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>361</v>
       </c>
@@ -5914,7 +6037,7 @@
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
     </row>
-    <row r="84" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>361</v>
       </c>
@@ -5962,7 +6085,7 @@
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>361</v>
       </c>
@@ -6007,7 +6130,7 @@
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>361</v>
       </c>
@@ -6055,7 +6178,7 @@
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>361</v>
       </c>
@@ -6100,7 +6223,7 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>361</v>
       </c>
@@ -6145,7 +6268,7 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>361</v>
       </c>
@@ -6190,7 +6313,7 @@
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
     </row>
-    <row r="90" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>361</v>
       </c>
@@ -6235,7 +6358,7 @@
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
     </row>
-    <row r="91" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>361</v>
       </c>
@@ -6280,7 +6403,7 @@
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
     </row>
-    <row r="92" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>361</v>
       </c>
@@ -6325,7 +6448,7 @@
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
     </row>
-    <row r="93" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>361</v>
       </c>
@@ -6370,7 +6493,7 @@
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
     </row>
-    <row r="94" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -6415,7 +6538,7 @@
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
     </row>
-    <row r="95" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>410</v>
       </c>
@@ -6460,7 +6583,7 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
     </row>
-    <row r="96" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>415</v>
       </c>
@@ -6505,7 +6628,7 @@
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
     </row>
-    <row r="97" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>415</v>
       </c>
@@ -6550,7 +6673,7 @@
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
     </row>
-    <row r="98" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>415</v>
       </c>
@@ -6595,7 +6718,7 @@
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
     </row>
-    <row r="99" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>425</v>
       </c>
@@ -6640,7 +6763,7 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
     </row>
-    <row r="100" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>425</v>
       </c>
@@ -6685,7 +6808,7 @@
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
     </row>
-    <row r="101" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>425</v>
       </c>
@@ -6730,7 +6853,7 @@
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
     </row>
-    <row r="102" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -6775,7 +6898,7 @@
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
     </row>
-    <row r="103" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>441</v>
       </c>
@@ -6820,7 +6943,7 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
     </row>
-    <row r="104" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>441</v>
       </c>
@@ -6865,7 +6988,7 @@
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
     </row>
-    <row r="105" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>441</v>
       </c>
@@ -6910,7 +7033,7 @@
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
     </row>
-    <row r="106" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>452</v>
       </c>
@@ -6955,7 +7078,7 @@
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
     </row>
-    <row r="107" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>452</v>
       </c>
@@ -7000,7 +7123,7 @@
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
     </row>
-    <row r="108" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>460</v>
       </c>
@@ -7045,15 +7168,15 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="110" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="111" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="112" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G108" xr:uid="{AEACC24A-D96C-D245-9DF0-6933990D4F53}">
@@ -7171,6 +7294,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId104"/>
+  <tableParts count="1">
+    <tablePart r:id="rId105"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -7183,21 +7309,21 @@
       <selection pane="bottomLeft" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.3125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="15"/>
-    <col min="12" max="12" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.8125" style="15"/>
+    <col min="12" max="12" width="13.3125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7251,7 +7377,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -7300,7 +7426,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7349,7 +7475,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -7403,7 +7529,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -7452,7 +7578,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -7501,7 +7627,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -7550,7 +7676,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -7599,7 +7725,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -7648,7 +7774,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -7697,7 +7823,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -7746,7 +7872,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7797,7 +7923,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7846,7 +7972,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -7895,7 +8021,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -7944,7 +8070,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -7993,7 +8119,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -8042,7 +8168,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -8091,7 +8217,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -8140,7 +8266,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -8192,7 +8318,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -8241,7 +8367,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -8290,7 +8416,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -8339,7 +8465,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -8388,7 +8514,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -8437,7 +8563,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -8486,7 +8612,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -8538,7 +8664,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -8588,7 +8714,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -8637,7 +8763,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -8686,7 +8812,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>137</v>
       </c>
@@ -8735,7 +8861,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -8784,7 +8910,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -8833,7 +8959,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -8882,7 +9008,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -8934,7 +9060,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -8983,7 +9109,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -9032,7 +9158,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -9081,7 +9207,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -9133,7 +9259,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -9182,7 +9308,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -9231,7 +9357,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -9280,7 +9406,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -9329,7 +9455,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -9378,7 +9504,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -9427,7 +9553,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -9476,7 +9602,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -9525,7 +9651,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -9574,7 +9700,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>198</v>
       </c>
@@ -9623,7 +9749,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -9672,7 +9798,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>219</v>
       </c>
@@ -9721,7 +9847,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>228</v>
       </c>
@@ -9770,7 +9896,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -9819,7 +9945,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>233</v>
       </c>
@@ -9868,7 +9994,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -9917,7 +10043,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>242</v>
       </c>
@@ -9966,7 +10092,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -10015,7 +10141,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -10064,7 +10190,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>255</v>
       </c>
@@ -10113,7 +10239,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>255</v>
       </c>
@@ -10162,7 +10288,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>255</v>
       </c>
@@ -10211,7 +10337,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -10260,7 +10386,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>255</v>
       </c>
@@ -10309,7 +10435,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -10358,7 +10484,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>281</v>
       </c>
@@ -10407,7 +10533,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -10456,7 +10582,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -10505,7 +10631,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>281</v>
       </c>
@@ -10554,7 +10680,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>298</v>
       </c>
@@ -10603,7 +10729,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -10652,7 +10778,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>303</v>
       </c>
@@ -10703,7 +10829,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -10752,7 +10878,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -10801,7 +10927,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>311</v>
       </c>
@@ -10850,7 +10976,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -10899,7 +11025,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>311</v>
       </c>
@@ -10948,7 +11074,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -10997,7 +11123,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>311</v>
       </c>
@@ -11046,7 +11172,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>311</v>
       </c>
@@ -11095,7 +11221,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -11146,7 +11272,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>344</v>
       </c>
@@ -11195,7 +11321,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>344</v>
       </c>
@@ -11247,7 +11373,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>344</v>
       </c>
@@ -11296,7 +11422,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>361</v>
       </c>
@@ -11345,7 +11471,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>361</v>
       </c>
@@ -11394,7 +11520,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>361</v>
       </c>
@@ -11446,7 +11572,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>361</v>
       </c>
@@ -11495,7 +11621,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>361</v>
       </c>
@@ -11547,7 +11673,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>361</v>
       </c>
@@ -11598,7 +11724,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>361</v>
       </c>
@@ -11647,7 +11773,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>361</v>
       </c>
@@ -11696,7 +11822,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>361</v>
       </c>
@@ -11745,7 +11871,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>361</v>
       </c>
@@ -11794,7 +11920,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -11843,7 +11969,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>361</v>
       </c>
@@ -11892,7 +12018,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>361</v>
       </c>
@@ -11941,7 +12067,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>410</v>
       </c>
@@ -11990,7 +12116,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>415</v>
       </c>
@@ -12039,7 +12165,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>415</v>
       </c>
@@ -12088,7 +12214,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>415</v>
       </c>
@@ -12137,7 +12263,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>425</v>
       </c>
@@ -12186,7 +12312,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -12235,7 +12361,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>425</v>
       </c>
@@ -12284,7 +12410,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>425</v>
       </c>
@@ -12333,7 +12459,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>441</v>
       </c>
@@ -12382,7 +12508,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>441</v>
       </c>
@@ -12431,7 +12557,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>441</v>
       </c>
@@ -12480,7 +12606,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>452</v>
       </c>
@@ -12529,7 +12655,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>452</v>
       </c>
@@ -12578,7 +12704,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>460</v>
       </c>
@@ -12627,15 +12753,15 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" sqref="C2:C110" xr:uid="{47FA2EC6-DEBF-C04E-8A60-BDA5CCD1E19A}">
@@ -12762,26 +12888,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044E2AB4-CF41-8143-88AF-BE70935CCE4C}">
   <dimension ref="A1:Z117"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.3125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="15"/>
-    <col min="12" max="12" width="13.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.8125" style="15"/>
+    <col min="12" max="12" width="13.3125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12835,7 +12961,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -12884,7 +13010,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12933,7 +13059,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -12982,7 +13108,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -13031,7 +13157,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -13080,7 +13206,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -13129,7 +13255,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -13178,7 +13304,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -13227,7 +13353,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -13276,7 +13402,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -13327,7 +13453,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -13376,7 +13502,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -13425,7 +13551,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -13474,7 +13600,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -13523,7 +13649,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -13572,7 +13698,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -13621,7 +13747,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -13670,7 +13796,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -13722,7 +13848,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -13771,7 +13897,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -13820,7 +13946,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -13869,7 +13995,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -13918,7 +14044,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -13967,7 +14093,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -14016,7 +14142,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -14068,7 +14194,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -14118,7 +14244,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -14167,7 +14293,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -14216,7 +14342,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -14265,7 +14391,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -14314,7 +14440,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -14363,7 +14489,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -14412,7 +14538,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -14464,7 +14590,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -14513,7 +14639,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -14562,7 +14688,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -14611,7 +14737,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>174</v>
       </c>
@@ -14663,7 +14789,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -14712,7 +14838,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -14761,7 +14887,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -14810,7 +14936,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -14859,7 +14985,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -14908,7 +15034,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -14957,7 +15083,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -15006,7 +15132,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -15055,7 +15181,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -15104,7 +15230,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -15153,7 +15279,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -15202,7 +15328,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>219</v>
       </c>
@@ -15251,7 +15377,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>228</v>
       </c>
@@ -15300,7 +15426,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>233</v>
       </c>
@@ -15349,7 +15475,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -15398,7 +15524,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>242</v>
       </c>
@@ -15447,7 +15573,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -15496,7 +15622,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>250</v>
       </c>
@@ -15545,7 +15671,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -15594,7 +15720,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -15643,7 +15769,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>255</v>
       </c>
@@ -15692,7 +15818,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>255</v>
       </c>
@@ -15741,7 +15867,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>255</v>
       </c>
@@ -15790,7 +15916,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>255</v>
       </c>
@@ -15839,7 +15965,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>276</v>
       </c>
@@ -15888,7 +16014,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -15937,7 +16063,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>281</v>
       </c>
@@ -15986,7 +16112,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -16035,7 +16161,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -16084,7 +16210,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>298</v>
       </c>
@@ -16133,7 +16259,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>303</v>
       </c>
@@ -16182,7 +16308,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>303</v>
       </c>
@@ -16233,7 +16359,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>311</v>
       </c>
@@ -16282,7 +16408,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -16331,7 +16457,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>311</v>
       </c>
@@ -16380,7 +16506,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>311</v>
       </c>
@@ -16429,7 +16555,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>311</v>
       </c>
@@ -16478,7 +16604,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>311</v>
       </c>
@@ -16527,7 +16653,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>311</v>
       </c>
@@ -16576,7 +16702,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>311</v>
       </c>
@@ -16625,7 +16751,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>344</v>
       </c>
@@ -16674,7 +16800,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -16726,7 +16852,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>344</v>
       </c>
@@ -16775,7 +16901,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>361</v>
       </c>
@@ -16824,7 +16950,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>361</v>
       </c>
@@ -16873,7 +16999,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>361</v>
       </c>
@@ -16925,7 +17051,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>361</v>
       </c>
@@ -16974,7 +17100,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>361</v>
       </c>
@@ -17026,7 +17152,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>361</v>
       </c>
@@ -17077,7 +17203,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>361</v>
       </c>
@@ -17126,7 +17252,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>361</v>
       </c>
@@ -17175,7 +17301,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>361</v>
       </c>
@@ -17224,7 +17350,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>361</v>
       </c>
@@ -17273,7 +17399,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>361</v>
       </c>
@@ -17322,7 +17448,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>361</v>
       </c>
@@ -17371,7 +17497,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>361</v>
       </c>
@@ -17420,7 +17546,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>410</v>
       </c>
@@ -17469,7 +17595,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>415</v>
       </c>
@@ -17518,7 +17644,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>415</v>
       </c>
@@ -17567,7 +17693,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>415</v>
       </c>
@@ -17616,7 +17742,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>425</v>
       </c>
@@ -17665,7 +17791,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>425</v>
       </c>
@@ -17714,7 +17840,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>425</v>
       </c>
@@ -17763,7 +17889,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -17812,7 +17938,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>441</v>
       </c>
@@ -17861,7 +17987,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>441</v>
       </c>
@@ -17910,7 +18036,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>441</v>
       </c>
@@ -17959,7 +18085,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>452</v>
       </c>
@@ -18008,7 +18134,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>452</v>
       </c>
@@ -18057,7 +18183,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>460</v>
       </c>
@@ -18106,95 +18232,15 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H110" t="s">
-        <v>473</v>
-      </c>
-      <c r="I110" s="15">
-        <f>AVERAGE(I2:I108)</f>
-        <v>11435.41121495327</v>
-      </c>
-      <c r="J110" s="15">
-        <f t="shared" ref="J110:K110" si="0">AVERAGE(J2:J108)</f>
-        <v>135.27102803738319</v>
-      </c>
-      <c r="K110" s="15">
-        <f t="shared" si="0"/>
-        <v>2102.7570093457944</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H111" t="s">
-        <v>474</v>
-      </c>
-      <c r="I111" s="15">
-        <f>MEDIAN(I2:I108)</f>
-        <v>2053</v>
-      </c>
-      <c r="J111" s="15">
-        <f t="shared" ref="J111:K111" si="1">MEDIAN(J2:J108)</f>
-        <v>51</v>
-      </c>
-      <c r="K111" s="15">
-        <f t="shared" si="1"/>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H112" t="s">
-        <v>475</v>
-      </c>
-      <c r="I112" s="15">
-        <f>MODE(I2:I108)</f>
-        <v>7</v>
-      </c>
-      <c r="J112" s="15">
-        <f t="shared" ref="J112:K112" si="2">MODE(J2:J108)</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H114" t="s">
-        <v>476</v>
-      </c>
-      <c r="I114" s="15">
-        <f>MAX(I2:I108)</f>
-        <v>266458</v>
-      </c>
-      <c r="J114" s="15">
-        <f t="shared" ref="J114:K114" si="3">MAX(J2:J108)</f>
-        <v>1355</v>
-      </c>
-      <c r="K114" s="15">
-        <f t="shared" si="3"/>
-        <v>29070</v>
-      </c>
-    </row>
-    <row r="115" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H115" t="s">
-        <v>477</v>
-      </c>
-      <c r="I115" s="15">
-        <f>MIN(I2:I108)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="15">
-        <f t="shared" ref="J115:K115" si="4">MIN(J2:J108)</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="8:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="C2:C108" xr:uid="{0537AF1C-6CDF-EF48-A772-57120F5BE95B}">
